--- a/wpms_main/management/static/files/acceptance_act.xlsx
+++ b/wpms_main/management/static/files/acceptance_act.xlsx
@@ -678,7 +678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,7 +698,7 @@
     <row r="1">
       <c r="A1" s="22" t="inlineStr">
         <is>
-          <t>Акт приема сырья № 138 от 11.10.2023</t>
+          <t>Акт приема сырья № 4234 от 13.12.2023</t>
         </is>
       </c>
       <c r="B1" s="23" t="n"/>
@@ -733,7 +733,7 @@
       </c>
       <c r="B3" s="25" t="inlineStr">
         <is>
-          <t>ООО"ЭДЕЛЬВЕЙС"</t>
+          <t>ООО"КПО НЕВА"</t>
         </is>
       </c>
       <c r="C3" s="26" t="n"/>
@@ -801,7 +801,7 @@
       </c>
       <c r="B7" s="28" t="inlineStr">
         <is>
-          <t>Н1324</t>
+          <t>34423</t>
         </is>
       </c>
       <c r="C7" s="29" t="n"/>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="B8" s="31" t="n">
-        <v>15050</v>
+        <v>423</v>
       </c>
       <c r="C8" s="32" t="n"/>
       <c r="D8" s="32" t="n"/>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>451</v>
+        <v>87.53333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>424</v>
+        <v>87.53333333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>567</v>
+        <v>87.53333333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>356</v>
+        <v>87.53333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -963,14 +963,12 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="A14" t="n">
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Пэт тара  б/у(МИКС)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -978,21 +976,27 @@
           <t> </t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="D14" t="n">
+        <v>87.53333333333333</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>ООО"КПО НЕВА"</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="A15" t="n">
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Пэт тара  б/у(МИКС)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1000,110 +1004,414 @@
           <t> </t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="D15" t="n">
+        <v>87.53333333333333</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>ООО"КПО НЕВА"</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>Пэт тара  б/у(МИКС)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>87.53333333333333</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>ООО"КПО НЕВА"</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Пэт тара  б/у(МИКС)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>87.53333333333333</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>ООО"КПО НЕВА"</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Пэт тара  б/у(МИКС)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>87.53333333333333</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>ООО"КПО НЕВА"</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Пэт тара  б/у(МИКС)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>87.53333333333333</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>ООО"КПО НЕВА"</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Пэт тара  б/у(МИКС)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>87.53333333333333</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>ООО"КПО НЕВА"</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Пэт тара  б/у(МИКС)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>87.53333333333333</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>ООО"КПО НЕВА"</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Пэт тара  б/у(МИКС)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>87.53333333333333</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>ООО"КПО НЕВА"</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Пэт тара  б/у(МИКС)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>87.53333333333333</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>ООО"КПО НЕВА"</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Пэт тара  б/у(МИКС)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>87.53333333333333</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>ООО"КПО НЕВА"</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>45</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>ИТОГО</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>1798</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>ООО"КПО НЕВА"</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1313</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>ООО"КПО НЕВА"</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Вес автомобиля на въезде:</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>33000</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="B28" t="n">
+        <v>341341</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>Вес автомобиля на выезде:</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>18000</v>
-      </c>
-      <c r="C18" t="inlineStr">
+      <c r="B29" t="n">
+        <v>34141</v>
+      </c>
+      <c r="C29" t="inlineStr">
         <is>
           <t>ИТОГО</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>15000</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="D29" t="n">
+        <v>307200</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>ПРИНЯЛ</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
         <is>
           <t>Мациборская Т.В.</t>
         </is>

--- a/wpms_main/management/static/files/acceptance_act.xlsx
+++ b/wpms_main/management/static/files/acceptance_act.xlsx
@@ -678,7 +678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,7 +698,7 @@
     <row r="1">
       <c r="A1" s="22" t="inlineStr">
         <is>
-          <t>Акт приема сырья № 4234 от 13.12.2023</t>
+          <t>Акт приема сырья № 6476 от 15.12.2023</t>
         </is>
       </c>
       <c r="B1" s="23" t="n"/>
@@ -716,7 +716,7 @@
       </c>
       <c r="B2" s="25" t="inlineStr">
         <is>
-          <t>ООО"ФОРУМ ДЮКС"</t>
+          <t>ООО"КПО НЕВА"</t>
         </is>
       </c>
       <c r="C2" s="26" t="n"/>
@@ -733,7 +733,7 @@
       </c>
       <c r="B3" s="25" t="inlineStr">
         <is>
-          <t>ООО"КПО НЕВА"</t>
+          <t>ООО"ФОРУМ ДЮКС"</t>
         </is>
       </c>
       <c r="C3" s="26" t="n"/>
@@ -801,7 +801,7 @@
       </c>
       <c r="B7" s="28" t="inlineStr">
         <is>
-          <t>34423</t>
+          <t>476</t>
         </is>
       </c>
       <c r="C7" s="29" t="n"/>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="B8" s="31" t="n">
-        <v>423</v>
+        <v>5000</v>
       </c>
       <c r="C8" s="32" t="n"/>
       <c r="D8" s="32" t="n"/>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>87.53333333333333</v>
+        <v>1200</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ООО"КПО НЕВА"</t>
+          <t>ООО"ЭДЕЛЬВЕЙС"</t>
         </is>
       </c>
     </row>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>87.53333333333333</v>
+        <v>1200</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -902,7 +902,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ООО"КПО НЕВА"</t>
+          <t>ООО"ЭДЕЛЬВЕЙС"</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>87.53333333333333</v>
+        <v>1200</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ООО"КПО НЕВА"</t>
+          <t>ООО"ЭДЕЛЬВЕЙС"</t>
         </is>
       </c>
     </row>
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>87.53333333333333</v>
+        <v>1200</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ООО"КПО НЕВА"</t>
+          <t>ООО"ЭДЕЛЬВЕЙС"</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>87.53333333333333</v>
+        <v>1200</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -986,17 +986,19 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ООО"КПО НЕВА"</t>
+          <t>ООО"ЭДЕЛЬВЕЙС"</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Пэт тара  б/у(МИКС)</t>
+          <t> </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1004,27 +1006,21 @@
           <t> </t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>87.53333333333333</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>ООО"КПО НЕВА"</t>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Пэт тара  б/у(МИКС)</t>
+          <t> </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1032,27 +1028,19 @@
           <t> </t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>87.53333333333333</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>ООО"КПО НЕВА"</t>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Пэт тара  б/у(МИКС)</t>
+          <t>ИТОГО</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1061,7 +1049,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>87.53333333333333</v>
+        <v>6000</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1070,73 +1058,62 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ООО"КПО НЕВА"</t>
+          <t>ООО"ЭДЕЛЬВЕЙС"</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>3</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Пэт тара  б/у(МИКС)</t>
-        </is>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Вес автомобиля на въезде:</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>13000</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>87.53333333333333</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>ООО"КПО НЕВА"</t>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>3</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Пэт тара  б/у(МИКС)</t>
-        </is>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Вес автомобиля на выезде:</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7000</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ИТОГО</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>87.53333333333333</v>
+        <v>6000</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>ООО"КПО НЕВА"</t>
-        </is>
-      </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>3</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Пэт тара  б/у(МИКС)</t>
+          <t>ПРИНЯЛ</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1144,8 +1121,10 @@
           <t> </t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>87.53333333333333</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1153,265 +1132,6 @@
         </is>
       </c>
       <c r="F20" t="inlineStr">
-        <is>
-          <t>ООО"КПО НЕВА"</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>3</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Пэт тара  б/у(МИКС)</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>87.53333333333333</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>ООО"КПО НЕВА"</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>3</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Пэт тара  б/у(МИКС)</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>87.53333333333333</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>ООО"КПО НЕВА"</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Пэт тара  б/у(МИКС)</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>87.53333333333333</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>ООО"КПО НЕВА"</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>3</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Пэт тара  б/у(МИКС)</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>87.53333333333333</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>ООО"КПО НЕВА"</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>45</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>ИТОГО</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>1313</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>ООО"КПО НЕВА"</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Вес автомобиля на въезде:</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>341341</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Вес автомобиля на выезде:</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>34141</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>ИТОГО</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>307200</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>ПРИНЯЛ</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
         <is>
           <t>Мациборская Т.В.</t>
         </is>

--- a/wpms_main/management/static/files/acceptance_act.xlsx
+++ b/wpms_main/management/static/files/acceptance_act.xlsx
@@ -678,7 +678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,7 +698,7 @@
     <row r="1">
       <c r="A1" s="22" t="inlineStr">
         <is>
-          <t>Акт приема сырья № 6476 от 15.12.2023</t>
+          <t>Акт приема сырья № 32523 от 17.01.2024</t>
         </is>
       </c>
       <c r="B1" s="23" t="n"/>
@@ -784,7 +784,7 @@
       </c>
       <c r="B6" s="28" t="inlineStr">
         <is>
-          <t>Пэт тара  б/у(МИКС)</t>
+          <t>Пэт тара  б/у(МИКС), ebvbvevw</t>
         </is>
       </c>
       <c r="C6" s="29" t="n"/>
@@ -801,7 +801,7 @@
       </c>
       <c r="B7" s="28" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>42343</t>
         </is>
       </c>
       <c r="C7" s="29" t="n"/>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="B8" s="31" t="n">
-        <v>5000</v>
+        <v>423423</v>
       </c>
       <c r="C8" s="32" t="n"/>
       <c r="D8" s="32" t="n"/>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1200</v>
+        <v>441.5454545454546</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1200</v>
+        <v>441.5454545454546</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1200</v>
+        <v>441.5454545454546</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1200</v>
+        <v>441.5454545454546</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1200</v>
+        <v>147.1818181818182</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -991,14 +991,12 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="A15" t="n">
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ebvbvevw</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1006,21 +1004,27 @@
           <t> </t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="D15" t="n">
+        <v>294.3636363636364</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>ООО"ЭДЕЛЬВЕЙС"</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="A16" t="n">
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ebvbvevw</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1028,110 +1032,554 @@
           <t> </t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="D16" t="n">
+        <v>294.3636363636364</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>ООО"ЭДЕЛЬВЕЙС"</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>ebvbvevw</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>294.3636363636364</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>ООО"ЭДЕЛЬВЕЙС"</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ebvbvevw</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>294.3636363636364</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>ООО"ЭДЕЛЬВЕЙС"</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ebvbvevw</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>294.3636363636364</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>ООО"ЭДЕЛЬВЕЙС"</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ebvbvevw</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>294.3636363636364</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>ООО"ЭДЕЛЬВЕЙС"</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ebvbvevw</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>294.3636363636364</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>ООО"ЭДЕЛЬВЕЙС"</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ebvbvevw</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>294.3636363636364</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>ООО"ЭДЕЛЬВЕЙС"</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ebvbvevw</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>294.3636363636364</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>ООО"ЭДЕЛЬВЕЙС"</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ebvbvevw</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>294.3636363636364</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>ООО"ЭДЕЛЬВЕЙС"</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ebvbvevw</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>294.3636363636364</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>ООО"ЭДЕЛЬВЕЙС"</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ebvbvevw</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>294.3636363636364</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>ООО"ЭДЕЛЬВЕЙС"</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ebvbvevw</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>294.3636363636364</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>ООО"ЭДЕЛЬВЕЙС"</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ebvbvevw</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>294.3636363636364</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>ООО"ЭДЕЛЬВЕЙС"</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ebvbvevw</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>294.3636363636364</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>ООО"ЭДЕЛЬВЕЙС"</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ebvbvevw</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>147.1818181818182</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>ООО"ЭДЕЛЬВЕЙС"</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>13</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>ИТОГО</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>6000</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>ООО"ЭДЕЛЬВЕЙС"</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>6475.999999999998</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>ООО"ЭДЕЛЬВЕЙС"</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>Вес автомобиля на въезде:</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>13000</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="B34" t="n">
+        <v>15000</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>Вес автомобиля на выезде:</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>7000</v>
-      </c>
-      <c r="C19" t="inlineStr">
+      <c r="B35" t="n">
+        <v>8524</v>
+      </c>
+      <c r="C35" t="inlineStr">
         <is>
           <t>ИТОГО</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>6000</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="D35" t="n">
+        <v>6476</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>ПРИНЯЛ</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
         <is>
           <t>Мациборская Т.В.</t>
         </is>

--- a/wpms_main/management/static/files/acceptance_act.xlsx
+++ b/wpms_main/management/static/files/acceptance_act.xlsx
@@ -678,7 +678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,7 +698,7 @@
     <row r="1">
       <c r="A1" s="22" t="inlineStr">
         <is>
-          <t>Акт приема сырья № 32523 от 17.01.2024</t>
+          <t>Акт приема сырья № 52532 от 19.01.2024</t>
         </is>
       </c>
       <c r="B1" s="23" t="n"/>
@@ -784,7 +784,7 @@
       </c>
       <c r="B6" s="28" t="inlineStr">
         <is>
-          <t>Пэт тара  б/у(МИКС), ebvbvevw</t>
+          <t>ebvbvevw, Пэт тара  б/у(МИКС)</t>
         </is>
       </c>
       <c r="C6" s="29" t="n"/>
@@ -801,7 +801,7 @@
       </c>
       <c r="B7" s="28" t="inlineStr">
         <is>
-          <t>42343</t>
+          <t>2452</t>
         </is>
       </c>
       <c r="C7" s="29" t="n"/>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="B8" s="31" t="n">
-        <v>423423</v>
+        <v>2300</v>
       </c>
       <c r="C8" s="32" t="n"/>
       <c r="D8" s="32" t="n"/>
@@ -856,7 +856,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Пэт тара  б/у(МИКС)</t>
+          <t>ebvbvevw</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>441.5454545454546</v>
+        <v>286.9565217391304</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Пэт тара  б/у(МИКС)</t>
+          <t>ebvbvevw</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>441.5454545454546</v>
+        <v>286.9565217391304</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Пэт тара  б/у(МИКС)</t>
+          <t>ebvbvevw</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>441.5454545454546</v>
+        <v>286.9565217391304</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Пэт тара  б/у(МИКС)</t>
+          <t>ebvbvevw</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>441.5454545454546</v>
+        <v>286.9565217391304</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -964,11 +964,11 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Пэт тара  б/у(МИКС)</t>
+          <t>ebvbvevw</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -977,7 +977,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>147.1818181818182</v>
+        <v>286.9565217391304</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -992,7 +992,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>294.3636363636364</v>
+        <v>286.9565217391304</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>294.3636363636364</v>
+        <v>286.9565217391304</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>294.3636363636364</v>
+        <v>191.304347826087</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1076,11 +1076,11 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ebvbvevw</t>
+          <t>Пэт тара  б/у(МИКС)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1089,7 +1089,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>294.3636363636364</v>
+        <v>286.9565217391304</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1104,11 +1104,11 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ebvbvevw</t>
+          <t>Пэт тара  б/у(МИКС)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>294.3636363636364</v>
+        <v>286.9565217391304</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1132,11 +1132,11 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ebvbvevw</t>
+          <t>Пэт тара  б/у(МИКС)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1145,7 +1145,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>294.3636363636364</v>
+        <v>286.9565217391304</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1160,11 +1160,11 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ebvbvevw</t>
+          <t>Пэт тара  б/у(МИКС)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1173,7 +1173,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>294.3636363636364</v>
+        <v>286.9565217391304</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1188,11 +1188,11 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ebvbvevw</t>
+          <t>Пэт тара  б/у(МИКС)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>294.3636363636364</v>
+        <v>286.9565217391304</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1216,11 +1216,11 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ebvbvevw</t>
+          <t>Пэт тара  б/у(МИКС)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1229,7 +1229,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>294.3636363636364</v>
+        <v>286.9565217391304</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1244,11 +1244,11 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ebvbvevw</t>
+          <t>Пэт тара  б/у(МИКС)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>294.3636363636364</v>
+        <v>286.9565217391304</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ebvbvevw</t>
+          <t>Пэт тара  б/у(МИКС)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>294.3636363636364</v>
+        <v>191.304347826087</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1299,12 +1299,14 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>2</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ebvbvevw</t>
+          <t> </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1312,27 +1314,21 @@
           <t> </t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>294.3636363636364</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>ООО"ЭДЕЛЬВЕЙС"</t>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>2</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ebvbvevw</t>
+          <t> </t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1340,27 +1336,19 @@
           <t> </t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>294.3636363636364</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>ООО"ЭДЕЛЬВЕЙС"</t>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ebvbvevw</t>
+          <t>ИТОГО</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1369,7 +1357,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>294.3636363636364</v>
+        <v>4400</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1383,58 +1371,45 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>2</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>ebvbvevw</t>
-        </is>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Вес автомобиля на въезде:</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>12000</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>294.3636363636364</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>ООО"ЭДЕЛЬВЕЙС"</t>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>1</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>ebvbvevw</t>
-        </is>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Вес автомобиля на выезде:</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>7600</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ИТОГО</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>147.1818181818182</v>
+        <v>4400</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
           <t> </t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>ООО"ЭДЕЛЬВЕЙС"</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1421,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ПРИНЯЛ</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1459,127 +1434,12 @@
           <t> </t>
         </is>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>13</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>ИТОГО</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>6475.999999999998</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>ООО"ЭДЕЛЬВЕЙС"</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Вес автомобиля на въезде:</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>15000</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Вес автомобиля на выезде:</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>8524</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>ИТОГО</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>6476</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>ПРИНЯЛ</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
+      <c r="E31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
         <is>
           <t>Мациборская Т.В.</t>
         </is>

--- a/wpms_main/management/static/files/acceptance_act.xlsx
+++ b/wpms_main/management/static/files/acceptance_act.xlsx
@@ -678,7 +678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,7 +698,7 @@
     <row r="1">
       <c r="A1" s="22" t="inlineStr">
         <is>
-          <t>Акт приема сырья № 52532 от 19.01.2024</t>
+          <t>Акт приема сырья № 2131 от 24.01.2024</t>
         </is>
       </c>
       <c r="B1" s="23" t="n"/>
@@ -716,7 +716,7 @@
       </c>
       <c r="B2" s="25" t="inlineStr">
         <is>
-          <t>ООО"КПО НЕВА"</t>
+          <t>ООО"ФОРУМ ДЮКС"</t>
         </is>
       </c>
       <c r="C2" s="26" t="n"/>
@@ -733,7 +733,7 @@
       </c>
       <c r="B3" s="25" t="inlineStr">
         <is>
-          <t>ООО"ФОРУМ ДЮКС"</t>
+          <t>ООО"ЭДЕЛЬВЕЙС"</t>
         </is>
       </c>
       <c r="C3" s="26" t="n"/>
@@ -784,7 +784,7 @@
       </c>
       <c r="B6" s="28" t="inlineStr">
         <is>
-          <t>ebvbvevw, Пэт тара  б/у(МИКС)</t>
+          <t>Пэт тара  б/у(МИКС), Пэт тара  б/у(МИКС)</t>
         </is>
       </c>
       <c r="C6" s="29" t="n"/>
@@ -801,7 +801,7 @@
       </c>
       <c r="B7" s="28" t="inlineStr">
         <is>
-          <t>2452</t>
+          <t>432423</t>
         </is>
       </c>
       <c r="C7" s="29" t="n"/>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="B8" s="31" t="n">
-        <v>2300</v>
+        <v>42342</v>
       </c>
       <c r="C8" s="32" t="n"/>
       <c r="D8" s="32" t="n"/>
@@ -856,7 +856,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ebvbvevw</t>
+          <t>Пэт тара  б/у(МИКС)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>286.9565217391304</v>
+        <v>1236</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ООО"ЭДЕЛЬВЕЙС"</t>
+          <t>ООО"КПО НЕВА"</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ebvbvevw</t>
+          <t>Пэт тара  б/у(МИКС)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>286.9565217391304</v>
+        <v>1236</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -902,7 +902,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ООО"ЭДЕЛЬВЕЙС"</t>
+          <t>ООО"КПО НЕВА"</t>
         </is>
       </c>
     </row>
@@ -912,7 +912,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ebvbvevw</t>
+          <t>Пэт тара  б/у(МИКС)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>286.9565217391304</v>
+        <v>1236</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ООО"ЭДЕЛЬВЕЙС"</t>
+          <t>ООО"КПО НЕВА"</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ebvbvevw</t>
+          <t>Пэт тара  б/у(МИКС)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>286.9565217391304</v>
+        <v>1236</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -958,17 +958,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ООО"ЭДЕЛЬВЕЙС"</t>
+          <t>ООО"КПО НЕВА"</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ebvbvevw</t>
+          <t>Пэт тара  б/у(МИКС)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -977,7 +977,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>286.9565217391304</v>
+        <v>412</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ООО"ЭДЕЛЬВЕЙС"</t>
+          <t>ООО"КПО НЕВА"</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ebvbvevw</t>
+          <t>Пэт тара  б/у(МИКС)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>286.9565217391304</v>
+        <v>1236</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1014,17 +1014,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ООО"ЭДЕЛЬВЕЙС"</t>
+          <t>ООО"КПО НЕВА"</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ebvbvevw</t>
+          <t>Пэт тара  б/у(МИКС)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>286.9565217391304</v>
+        <v>412</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1042,17 +1042,19 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ООО"ЭДЕЛЬВЕЙС"</t>
+          <t>ООО"КПО НЕВА"</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>2</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ebvbvevw</t>
+          <t> </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1060,27 +1062,21 @@
           <t> </t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>191.304347826087</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>ООО"ЭДЕЛЬВЕЙС"</t>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>3</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Пэт тара  б/у(МИКС)</t>
+          <t> </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1088,27 +1084,19 @@
           <t> </t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>286.9565217391304</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>ООО"ЭДЕЛЬВЕЙС"</t>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Пэт тара  б/у(МИКС)</t>
+          <t>ИТОГО</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1117,7 +1105,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>286.9565217391304</v>
+        <v>7004</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1126,73 +1114,62 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ООО"ЭДЕЛЬВЕЙС"</t>
+          <t>ООО"КПО НЕВА"</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>3</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Пэт тара  б/у(МИКС)</t>
-        </is>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Вес автомобиля на въезде:</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>12000</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>286.9565217391304</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>ООО"ЭДЕЛЬВЕЙС"</t>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>3</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Пэт тара  б/у(МИКС)</t>
-        </is>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Вес автомобиля на выезде:</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>5000</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ИТОГО</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>286.9565217391304</v>
+        <v>7000</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>ООО"ЭДЕЛЬВЕЙС"</t>
-        </is>
-      </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>3</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Пэт тара  б/у(МИКС)</t>
+          <t>ПРИНЯЛ</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1200,8 +1177,10 @@
           <t> </t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>286.9565217391304</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1209,237 +1188,6 @@
         </is>
       </c>
       <c r="F22" t="inlineStr">
-        <is>
-          <t>ООО"ЭДЕЛЬВЕЙС"</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Пэт тара  б/у(МИКС)</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>286.9565217391304</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>ООО"ЭДЕЛЬВЕЙС"</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>3</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Пэт тара  б/у(МИКС)</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>286.9565217391304</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>ООО"ЭДЕЛЬВЕЙС"</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>2</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Пэт тара  б/у(МИКС)</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>191.304347826087</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>ООО"ЭДЕЛЬВЕЙС"</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>23</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>ИТОГО</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>4400</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>ООО"ЭДЕЛЬВЕЙС"</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Вес автомобиля на въезде:</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>12000</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Вес автомобиля на выезде:</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>7600</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>ИТОГО</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>4400</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>ПРИНЯЛ</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
         <is>
           <t>Мациборская Т.В.</t>
         </is>
